--- a/restaurante.xlsx
+++ b/restaurante.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="95" windowWidth="15297" windowHeight="6086"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="15300" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="afc" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">afc!$A$1:$I$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">afc!$A$1:$H$105</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="134">
   <si>
     <t>Uchi</t>
   </si>
@@ -416,18 +416,6 @@
   </si>
   <si>
     <t>Avaliador</t>
-  </si>
-  <si>
-    <t>Norte</t>
-  </si>
-  <si>
-    <t>Zona</t>
-  </si>
-  <si>
-    <t>Oeste</t>
-  </si>
-  <si>
-    <t>Sul</t>
   </si>
   <si>
     <t>Pontuacao serviço</t>
@@ -1284,23 +1272,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="1"/>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.6" customHeight="1">
+    <row r="1" spans="1:8" ht="30.65" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>103</v>
       </c>
@@ -1308,28 +1298,25 @@
         <v>115</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="E1" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1337,28 +1324,25 @@
         <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
       <c r="E2" s="3">
-        <v>1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F2" s="3">
-        <v>9.8000000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="G2" s="3">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="H2" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I2" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1366,28 +1350,25 @@
         <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F3" s="3">
-        <v>9.6999999999999993</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3">
         <v>9</v>
       </c>
       <c r="H3" s="3">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1395,28 +1376,25 @@
         <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="F4" s="3">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="G4" s="3">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="H4" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I4" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1424,28 +1402,25 @@
         <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>9.4</v>
       </c>
       <c r="F5" s="3">
-        <v>9.4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1453,28 +1428,25 @@
         <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>9.4</v>
       </c>
       <c r="F6" s="3">
-        <v>9.4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H6" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I6" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1482,28 +1454,25 @@
         <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F7" s="3">
-        <v>9.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="G7" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3">
-        <v>9</v>
-      </c>
-      <c r="I7" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1511,28 +1480,25 @@
         <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F8" s="3">
-        <v>9.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="G8" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H8" s="3">
-        <v>9</v>
-      </c>
-      <c r="I8" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1540,28 +1506,25 @@
         <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>9.1</v>
       </c>
       <c r="F9" s="3">
-        <v>9.1</v>
+        <v>6</v>
       </c>
       <c r="G9" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H9" s="3">
-        <v>9</v>
-      </c>
-      <c r="I9" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1569,28 +1532,25 @@
         <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3">
         <v>8</v>
       </c>
       <c r="H10" s="3">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1598,28 +1558,25 @@
         <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>8.9</v>
       </c>
       <c r="F11" s="3">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3">
         <v>8</v>
       </c>
       <c r="H11" s="3">
-        <v>8</v>
-      </c>
-      <c r="I11" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1627,28 +1584,25 @@
         <v>125</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>8.9</v>
       </c>
       <c r="F12" s="3">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="G12" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>8</v>
-      </c>
-      <c r="I12" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1656,28 +1610,25 @@
         <v>125</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F13" s="3">
-        <v>8.8000000000000007</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3">
-        <v>9</v>
-      </c>
-      <c r="I13" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1685,28 +1636,25 @@
         <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F14" s="3">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1714,28 +1662,25 @@
         <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F15" s="3">
-        <v>8.6999999999999993</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3">
         <v>9</v>
       </c>
       <c r="H15" s="3">
-        <v>9</v>
-      </c>
-      <c r="I15" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1743,28 +1688,25 @@
         <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F16" s="3">
-        <v>8.6999999999999993</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="3">
-        <v>8</v>
-      </c>
-      <c r="I16" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1772,28 +1714,25 @@
         <v>116</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>8.6</v>
       </c>
       <c r="F17" s="3">
-        <v>8.6</v>
+        <v>6.5</v>
       </c>
       <c r="G17" s="3">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H17" s="3">
-        <v>7</v>
-      </c>
-      <c r="I17" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1801,28 +1740,25 @@
         <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="F18" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G18" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" s="3">
-        <v>9</v>
-      </c>
-      <c r="I18" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1830,28 +1766,25 @@
         <v>121</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="F19" s="3">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="G19" s="3">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H19" s="3">
-        <v>9</v>
-      </c>
-      <c r="I19" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1859,28 +1792,25 @@
         <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="F20" s="3">
         <v>8.5</v>
       </c>
       <c r="G20" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H20" s="3">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1888,28 +1818,25 @@
         <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="F21" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="G21" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1917,28 +1844,25 @@
         <v>118</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="F22" s="3">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1946,28 +1870,25 @@
         <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F23" s="3">
-        <v>8.3000000000000007</v>
+        <v>8</v>
       </c>
       <c r="G23" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H23" s="3">
-        <v>9</v>
-      </c>
-      <c r="I23" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1975,28 +1896,25 @@
         <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F24" s="3">
-        <v>8.3000000000000007</v>
+        <v>3.5</v>
       </c>
       <c r="G24" s="3">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="H24" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I24" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2004,28 +1922,25 @@
         <v>119</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
       <c r="E25" s="3">
-        <v>1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F25" s="3">
-        <v>8.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="G25" s="3">
         <v>9</v>
       </c>
       <c r="H25" s="3">
-        <v>9</v>
-      </c>
-      <c r="I25" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2033,28 +1948,25 @@
         <v>116</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F26" s="3">
-        <v>8.1999999999999993</v>
+        <v>6</v>
       </c>
       <c r="G26" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H26" s="3">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2062,28 +1974,25 @@
         <v>116</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F27" s="3">
-        <v>8.1999999999999993</v>
+        <v>3</v>
       </c>
       <c r="G27" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H27" s="3">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -2091,28 +2000,25 @@
         <v>122</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="F28" s="3">
-        <v>8.1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H28" s="3">
-        <v>9</v>
-      </c>
-      <c r="I28" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2120,28 +2026,25 @@
         <v>125</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G29" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H29" s="3">
-        <v>9</v>
-      </c>
-      <c r="I29" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2149,28 +2052,25 @@
         <v>125</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F30" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H30" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I30" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -2178,13 +2078,13 @@
         <v>122</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F31" s="3">
         <v>8</v>
@@ -2193,13 +2093,10 @@
         <v>8</v>
       </c>
       <c r="H31" s="3">
-        <v>8</v>
-      </c>
-      <c r="I31" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -2207,28 +2104,25 @@
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="F32" s="3">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="G32" s="3">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H32" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I32" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2236,28 +2130,25 @@
         <v>118</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="F33" s="3">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="G33" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H33" s="3">
-        <v>9</v>
-      </c>
-      <c r="I33" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -2265,28 +2156,25 @@
         <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="F34" s="3">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
         <v>8</v>
       </c>
       <c r="H34" s="3">
-        <v>8</v>
-      </c>
-      <c r="I34" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -2294,28 +2182,25 @@
         <v>121</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>7.7</v>
       </c>
       <c r="F35" s="3">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="G35" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H35" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I35" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -2323,28 +2208,25 @@
         <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="F36" s="3">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="G36" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="H36" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I36" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2352,28 +2234,25 @@
         <v>127</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
       <c r="E37" s="3">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="F37" s="3">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="G37" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H37" s="3">
-        <v>6</v>
-      </c>
-      <c r="I37" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -2381,28 +2260,25 @@
         <v>127</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
       <c r="E38" s="3">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="F38" s="3">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G38" s="3">
         <v>8</v>
       </c>
       <c r="H38" s="3">
-        <v>8</v>
-      </c>
-      <c r="I38" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -2410,28 +2286,25 @@
         <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="F39" s="3">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="G39" s="3">
         <v>8</v>
       </c>
       <c r="H39" s="3">
-        <v>8</v>
-      </c>
-      <c r="I39" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -2439,28 +2312,25 @@
         <v>122</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
       <c r="E40" s="3">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="F40" s="3">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="G40" s="3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H40" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I40" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -2468,28 +2338,25 @@
         <v>116</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
       <c r="E41" s="3">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="F41" s="3">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="G41" s="3">
         <v>8.5</v>
       </c>
       <c r="H41" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I41" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -2497,28 +2364,25 @@
         <v>124</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
       <c r="E42" s="3">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="F42" s="3">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="H42" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="I42" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2526,28 +2390,25 @@
         <v>124</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
       <c r="E43" s="3">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="F43" s="3">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="G43" s="3">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H43" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I43" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -2555,28 +2416,25 @@
         <v>119</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
       <c r="E44" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F44" s="3">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="G44" s="3">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="H44" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I44" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -2584,28 +2442,25 @@
         <v>122</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
       <c r="E45" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F45" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H45" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I45" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -2613,28 +2468,25 @@
         <v>122</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
       <c r="E46" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F46" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G46" s="3">
         <v>8</v>
       </c>
       <c r="H46" s="3">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -2642,28 +2494,25 @@
         <v>116</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D47" s="3">
+        <v>2</v>
+      </c>
       <c r="E47" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F47" s="3">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="G47" s="3">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="H47" s="3">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -2671,28 +2520,25 @@
         <v>120</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
       <c r="E48" s="3">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="F48" s="3">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="G48" s="3">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H48" s="3">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2700,28 +2546,25 @@
         <v>120</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
       <c r="E49" s="3">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="F49" s="3">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="G49" s="3">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H49" s="3">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -2729,28 +2572,25 @@
         <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
       <c r="E50" s="3">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="F50" s="3">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="G50" s="3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H50" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I50" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2758,28 +2598,25 @@
         <v>125</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
       <c r="E51" s="3">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="F51" s="3">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="G51" s="3">
         <v>9</v>
       </c>
       <c r="H51" s="3">
-        <v>9</v>
-      </c>
-      <c r="I51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -2787,28 +2624,25 @@
         <v>123</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
       <c r="E52" s="3">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="F52" s="3">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G52" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -2816,28 +2650,25 @@
         <v>124</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
       <c r="E53" s="3">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="F53" s="3">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="G53" s="3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H53" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I53" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -2845,28 +2676,25 @@
         <v>116</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
       <c r="E54" s="3">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="F54" s="3">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="G54" s="3">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H54" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I54" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -2874,28 +2702,25 @@
         <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
       <c r="E55" s="3">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="F55" s="3">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="G55" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H55" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I55" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -2903,28 +2728,25 @@
         <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
       <c r="E56" s="3">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="F56" s="3">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="G56" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H56" s="3">
-        <v>7</v>
-      </c>
-      <c r="I56" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -2932,28 +2754,25 @@
         <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
       <c r="E57" s="3">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="F57" s="3">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="G57" s="3">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="H57" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="I57" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -2961,28 +2780,25 @@
         <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
       <c r="E58" s="3">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="F58" s="3">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H58" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I58" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
         <v>131</v>
       </c>
@@ -2990,28 +2806,25 @@
         <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
       <c r="E59" s="3">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="F59" s="3">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="G59" s="3">
         <v>8</v>
       </c>
       <c r="H59" s="3">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
@@ -3019,28 +2832,25 @@
         <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
       <c r="E60" s="3">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="F60" s="3">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="G60" s="3">
         <v>9</v>
       </c>
       <c r="H60" s="3">
-        <v>9</v>
-      </c>
-      <c r="I60" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
@@ -3048,28 +2858,25 @@
         <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
       <c r="E61" s="3">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="F61" s="3">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="G61" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H61" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I61" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
@@ -3077,28 +2884,25 @@
         <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
       <c r="E62" s="3">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="F62" s="3">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="G62" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H62" s="3">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
@@ -3106,28 +2910,25 @@
         <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
       <c r="E63" s="3">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="F63" s="3">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="G63" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H63" s="3">
-        <v>8</v>
-      </c>
-      <c r="I63" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
@@ -3135,28 +2936,25 @@
         <v>122</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
       <c r="E64" s="3">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="F64" s="3">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="G64" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H64" s="3">
-        <v>8</v>
-      </c>
-      <c r="I64" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
@@ -3164,28 +2962,25 @@
         <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
       <c r="E65" s="3">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="F65" s="3">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="G65" s="3">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H65" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I65" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
@@ -3193,28 +2988,25 @@
         <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
       <c r="E66" s="3">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="F66" s="3">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="G66" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H66" s="3">
-        <v>7</v>
-      </c>
-      <c r="I66" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
@@ -3222,28 +3014,25 @@
         <v>118</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
       <c r="E67" s="3">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="F67" s="3">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="G67" s="3">
         <v>8.5</v>
       </c>
       <c r="H67" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I67" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -3251,28 +3040,25 @@
         <v>125</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
       <c r="E68" s="3">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="F68" s="3">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="G68" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H68" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I68" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
@@ -3280,28 +3066,25 @@
         <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D69" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
       <c r="E69" s="3">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="F69" s="3">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="G69" s="3">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H69" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I69" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
@@ -3309,28 +3092,25 @@
         <v>116</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
       <c r="E70" s="3">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="F70" s="3">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="G70" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H70" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I70" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
@@ -3338,28 +3118,25 @@
         <v>118</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
       <c r="E71" s="3">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="F71" s="3">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="G71" s="3">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="H71" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I71" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
@@ -3367,28 +3144,25 @@
         <v>118</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
       <c r="E72" s="3">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="F72" s="3">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="G72" s="3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H72" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I72" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
@@ -3396,28 +3170,25 @@
         <v>118</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D73" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
       <c r="E73" s="3">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="F73" s="3">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="G73" s="3">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="H73" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I73" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
@@ -3425,28 +3196,25 @@
         <v>120</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D74" s="3">
+        <v>2</v>
+      </c>
       <c r="E74" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F74" s="3">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="G74" s="3">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H74" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I74" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
         <v>72</v>
       </c>
@@ -3454,28 +3222,25 @@
         <v>118</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D75" s="3">
+        <v>2</v>
+      </c>
       <c r="E75" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F75" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G75" s="3">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="H75" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I75" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
         <v>73</v>
       </c>
@@ -3483,28 +3248,25 @@
         <v>118</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D76" s="3">
+        <v>2</v>
+      </c>
       <c r="E76" s="3">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="F76" s="3">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="G76" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="H76" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
@@ -3512,28 +3274,25 @@
         <v>121</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D77" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D77" s="3">
+        <v>2</v>
+      </c>
       <c r="E77" s="3">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="F77" s="3">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="G77" s="3">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H77" s="3">
-        <v>8</v>
-      </c>
-      <c r="I77" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
@@ -3541,28 +3300,25 @@
         <v>124</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D78" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D78" s="3">
+        <v>2</v>
+      </c>
       <c r="E78" s="3">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="F78" s="3">
-        <v>5.7</v>
+        <v>9.5</v>
       </c>
       <c r="G78" s="3">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H78" s="3">
-        <v>9</v>
-      </c>
-      <c r="I78" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
         <v>76</v>
       </c>
@@ -3570,28 +3326,25 @@
         <v>123</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D79" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="D79" s="3">
+        <v>2</v>
+      </c>
       <c r="E79" s="3">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="F79" s="3">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="G79" s="3">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="H79" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I79" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
         <v>77</v>
       </c>
@@ -3599,28 +3352,25 @@
         <v>123</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D80" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D80" s="3">
+        <v>2</v>
+      </c>
       <c r="E80" s="3">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="F80" s="3">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G80" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H80" s="3">
-        <v>8</v>
-      </c>
-      <c r="I80" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
         <v>78</v>
       </c>
@@ -3628,28 +3378,25 @@
         <v>122</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D81" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D81" s="3">
+        <v>2</v>
+      </c>
       <c r="E81" s="3">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="F81" s="3">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="G81" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H81" s="3">
-        <v>7</v>
-      </c>
-      <c r="I81" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
         <v>79</v>
       </c>
@@ -3657,28 +3404,25 @@
         <v>126</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="D82" s="3">
+        <v>2</v>
+      </c>
       <c r="E82" s="3">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="F82" s="3">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="G82" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H82" s="3">
-        <v>6</v>
-      </c>
-      <c r="I82" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3686,28 +3430,25 @@
         <v>123</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D83" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="D83" s="3">
+        <v>2</v>
+      </c>
       <c r="E83" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G83" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H83" s="3">
-        <v>9</v>
-      </c>
-      <c r="I83" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -3715,28 +3456,25 @@
         <v>123</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D84" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D84" s="3">
+        <v>2</v>
+      </c>
       <c r="E84" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F84" s="3">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="G84" s="3">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="H84" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I84" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
         <v>82</v>
       </c>
@@ -3744,28 +3482,25 @@
         <v>124</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D85" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D85" s="3">
+        <v>3</v>
+      </c>
       <c r="E85" s="3">
-        <v>3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F85" s="3">
-        <v>4.9000000000000004</v>
+        <v>8.5</v>
       </c>
       <c r="G85" s="3">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="H85" s="3">
-        <v>7</v>
-      </c>
-      <c r="I85" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
         <v>83</v>
       </c>
@@ -3773,28 +3508,25 @@
         <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D86" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D86" s="3">
+        <v>3</v>
+      </c>
       <c r="E86" s="3">
-        <v>3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F86" s="3">
-        <v>4.5999999999999996</v>
+        <v>8</v>
       </c>
       <c r="G86" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H86" s="3">
-        <v>9</v>
-      </c>
-      <c r="I86" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
@@ -3802,28 +3534,25 @@
         <v>127</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D87" s="3">
+        <v>3</v>
+      </c>
       <c r="E87" s="3">
-        <v>3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F87" s="3">
-        <v>4.5999999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="G87" s="3">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H87" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I87" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
         <v>85</v>
       </c>
@@ -3831,28 +3560,25 @@
         <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D88" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D88" s="3">
+        <v>3</v>
+      </c>
       <c r="E88" s="3">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F88" s="3">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="G88" s="3">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="H88" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="I88" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
         <v>86</v>
       </c>
@@ -3860,28 +3586,25 @@
         <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D89" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D89" s="3">
+        <v>3</v>
+      </c>
       <c r="E89" s="3">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F89" s="3">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="G89" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H89" s="3">
-        <v>9</v>
-      </c>
-      <c r="I89" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
         <v>87</v>
       </c>
@@ -3889,28 +3612,25 @@
         <v>116</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D90" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D90" s="3">
+        <v>3</v>
+      </c>
       <c r="E90" s="3">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F90" s="3">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="G90" s="3">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H90" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I90" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
         <v>88</v>
       </c>
@@ -3918,28 +3638,25 @@
         <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D91" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D91" s="3">
+        <v>3</v>
+      </c>
       <c r="E91" s="3">
-        <v>3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F91" s="3">
-        <v>4.4000000000000004</v>
+        <v>8.5</v>
       </c>
       <c r="G91" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H91" s="3">
-        <v>9</v>
-      </c>
-      <c r="I91" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
         <v>89</v>
       </c>
@@ -3947,28 +3664,25 @@
         <v>125</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D92" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="D92" s="3">
+        <v>3</v>
+      </c>
       <c r="E92" s="3">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="F92" s="3">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="G92" s="3">
         <v>8.5</v>
       </c>
       <c r="H92" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I92" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
         <v>90</v>
       </c>
@@ -3976,28 +3690,25 @@
         <v>126</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D93" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D93" s="3">
+        <v>3</v>
+      </c>
       <c r="E93" s="3">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="F93" s="3">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="G93" s="3">
         <v>9</v>
       </c>
       <c r="H93" s="3">
-        <v>9</v>
-      </c>
-      <c r="I93" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
         <v>91</v>
       </c>
@@ -4005,28 +3716,25 @@
         <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D94" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D94" s="3">
+        <v>3</v>
+      </c>
       <c r="E94" s="3">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F94" s="3">
-        <v>4.0999999999999996</v>
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>8</v>
       </c>
       <c r="H94" s="3">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -4034,28 +3742,25 @@
         <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D95" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="D95" s="3">
+        <v>3</v>
+      </c>
       <c r="E95" s="3">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F95" s="3">
-        <v>4.0999999999999996</v>
+        <v>9</v>
       </c>
       <c r="G95" s="3">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="H95" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="I95" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
         <v>93</v>
       </c>
@@ -4063,28 +3768,25 @@
         <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D96" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D96" s="3">
+        <v>3</v>
+      </c>
       <c r="E96" s="3">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F96" s="3">
-        <v>4.0999999999999996</v>
+        <v>8</v>
       </c>
       <c r="G96" s="3">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="H96" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="I96" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
         <v>94</v>
       </c>
@@ -4092,28 +3794,25 @@
         <v>126</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D97" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="D97" s="3">
+        <v>3</v>
+      </c>
       <c r="E97" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F97" s="3">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="G97" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H97" s="3">
-        <v>8</v>
-      </c>
-      <c r="I97" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
@@ -4121,28 +3820,25 @@
         <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D98" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D98" s="3">
+        <v>3</v>
+      </c>
       <c r="E98" s="3">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="F98" s="3">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="G98" s="3">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="H98" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I98" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
@@ -4150,28 +3846,25 @@
         <v>126</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D99" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D99" s="3">
+        <v>3</v>
+      </c>
       <c r="E99" s="3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="F99" s="3">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="G99" s="3">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="H99" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="I99" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
         <v>97</v>
       </c>
@@ -4179,28 +3872,25 @@
         <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D100" s="3">
+        <v>3</v>
+      </c>
       <c r="E100" s="3">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="F100" s="3">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="G100" s="3">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="H100" s="3">
-        <v>9</v>
-      </c>
-      <c r="I100" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
         <v>98</v>
       </c>
@@ -4208,28 +3898,25 @@
         <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D101" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D101" s="3">
+        <v>3</v>
+      </c>
       <c r="E101" s="3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="F101" s="3">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="G101" s="3">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
         <v>99</v>
       </c>
@@ -4237,28 +3924,25 @@
         <v>119</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D102" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D102" s="3">
+        <v>3</v>
+      </c>
       <c r="E102" s="3">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="F102" s="3">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="G102" s="3">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
         <v>100</v>
       </c>
@@ -4266,28 +3950,25 @@
         <v>117</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D103" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D103" s="3">
+        <v>3</v>
+      </c>
       <c r="E103" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F103" s="3">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="G103" s="3">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H103" s="3">
-        <v>6</v>
-      </c>
-      <c r="I103" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
         <v>101</v>
       </c>
@@ -4295,28 +3976,25 @@
         <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D104" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="D104" s="3">
+        <v>3</v>
+      </c>
       <c r="E104" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="F104" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G104" s="3">
         <v>3</v>
       </c>
-      <c r="F104" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="G104" s="3">
-        <v>8.5</v>
-      </c>
       <c r="H104" s="3">
-        <v>3</v>
-      </c>
-      <c r="I104" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
         <v>102</v>
       </c>
@@ -4324,24 +4002,21 @@
         <v>117</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D105" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="D105" s="3">
+        <v>3</v>
+      </c>
       <c r="E105" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="F105" s="3">
+        <v>9</v>
+      </c>
+      <c r="G105" s="3">
         <v>3</v>
       </c>
-      <c r="F105" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="G105" s="3">
-        <v>9</v>
-      </c>
       <c r="H105" s="3">
-        <v>3</v>
-      </c>
-      <c r="I105" s="3">
         <v>10</v>
       </c>
     </row>
